--- a/llama.xlsx
+++ b/llama.xlsx
@@ -1729,7 +1729,7 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1946,11 +1946,11 @@
         <v>1073741824</v>
       </c>
       <c r="L10">
-        <f>K10*2/J10/1000/1000</f>
-        <v>0.411474161333589</v>
+        <f>K10*2/J10/1000</f>
+        <v>411.474161333589</v>
       </c>
       <c r="M10">
-        <f>L10/4</f>
+        <f>L10/4000</f>
         <v>0.102868540333397</v>
       </c>
     </row>
@@ -1983,11 +1983,11 @@
         <v>268435456</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L17" si="1">K11*2/J11/1000/1000</f>
-        <v>0.314143307197191</v>
+        <f t="shared" ref="L11:L17" si="1">K11*2/J11/1000</f>
+        <v>314.143307197191</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M17" si="2">L11/4</f>
+        <f t="shared" ref="M11:M17" si="2">L11/4000</f>
         <v>0.0785358267992978</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>0.456522884353741</v>
+        <v>456.522884353741</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>0.17179869184</v>
+        <v>171.79869184</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1.41281818947368</v>
+        <v>1412.81818947368</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.452721334036049</v>
+        <v>452.721334036049</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0.482797582733813</v>
+        <v>482.797582733813</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>1.78510693931837</v>
+        <v>1785.10693931837</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
